--- a/notes/API Info.xlsx
+++ b/notes/API Info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aerid\Documents\BootcampWorkspace\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aerid\Documents\Showrunner\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B5605B-EA72-453B-9508-E8BEB2DBEA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300095BA-0CE8-4C19-9C8C-13C211F5D60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="4" xr2:uid="{E1B31CFA-6DF1-43A6-B5FE-562F7DFE83B7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="2" xr2:uid="{E1B31CFA-6DF1-43A6-B5FE-562F7DFE83B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -970,12 +970,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -994,6 +988,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,86 +1078,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1090,23 +1096,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1446,9 +1437,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1461,308 +1452,287 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:3" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="21" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="C18" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="21" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="21" t="s">
+      <c r="C21" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
+      <c r="C22" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="C25" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="21" t="s">
+      <c r="C26" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="C27" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="C28" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="7"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="19" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1783,7 +1753,7 @@
   </sheetPr>
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1797,633 +1767,633 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="34"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="24"/>
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="21" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="7"/>
+      <c r="C40" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="7"/>
+      <c r="C41" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="21" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="7"/>
+      <c r="C49" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="20" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="20" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="20" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="16"/>
+      <c r="C57" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="21" t="s">
+      <c r="A58" s="17"/>
+      <c r="B58" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="21" t="s">
+      <c r="A59" s="17"/>
+      <c r="B59" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="21" t="s">
+      <c r="A61" s="17"/>
+      <c r="B61" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="21" t="s">
+      <c r="A63" s="17"/>
+      <c r="B63" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="21" t="s">
+      <c r="A64" s="17"/>
+      <c r="B64" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="7"/>
+      <c r="C65" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="20" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="20" t="s">
+      <c r="B67" s="7"/>
+      <c r="C67" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="20" t="s">
+      <c r="B68" s="7"/>
+      <c r="C68" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="20" t="s">
+      <c r="B69" s="7"/>
+      <c r="C69" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="24" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2503,303 +2473,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="24"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="20" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -2807,12 +2777,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:E10"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2826,7 +2796,7 @@
   </sheetPr>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2842,88 +2812,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="53"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="1"/>
@@ -2981,7 +2951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B44ED61-EA15-4957-BDDA-269A169DBFE6}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -3187,750 +3157,750 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="36"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="34"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="24"/>
+      <c r="B5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="7"/>
+      <c r="C30" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="7"/>
+      <c r="C31" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="7"/>
+      <c r="C32" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="6"/>
+      <c r="B33" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="6"/>
+      <c r="B40" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="7"/>
+      <c r="C44" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="21" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="20" t="s">
+      <c r="B51" s="7"/>
+      <c r="C51" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="20" t="s">
+      <c r="B54" s="7"/>
+      <c r="C54" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="7"/>
+      <c r="C55" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="20" t="s">
+      <c r="B56" s="7"/>
+      <c r="C56" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="7"/>
+      <c r="C57" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="20" t="s">
+      <c r="B58" s="7"/>
+      <c r="C58" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="20" t="s">
+      <c r="B59" s="7"/>
+      <c r="C59" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9" t="s">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9" t="s">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9" t="s">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="7"/>
+      <c r="C64" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9" t="s">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="20" t="s">
+      <c r="B67" s="16"/>
+      <c r="C67" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="B68" s="21" t="s">
+      <c r="A68" s="17"/>
+      <c r="B68" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="17"/>
+      <c r="B69" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="17"/>
+      <c r="B70" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22"/>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="17"/>
+      <c r="B71" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="17"/>
+      <c r="B72" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="21" t="s">
+      <c r="A73" s="17"/>
+      <c r="B73" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="21" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="20" t="s">
+      <c r="B75" s="7"/>
+      <c r="C75" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9" t="s">
+      <c r="A76" s="6"/>
+      <c r="B76" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9" t="s">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="20" t="s">
+      <c r="B79" s="7"/>
+      <c r="C79" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="20" t="s">
+      <c r="B80" s="7"/>
+      <c r="C80" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="20" t="s">
+      <c r="B81" s="7"/>
+      <c r="C81" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="20" t="s">
+      <c r="B82" s="7"/>
+      <c r="C82" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="24" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="19" t="s">
         <v>2</v>
       </c>
     </row>
